--- a/p_2024.xlsx
+++ b/p_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Doc_UE\Quatro\Perspektywy2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63498D8-45E9-44F9-BF37-8B9D3C5B0811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9614C5-0033-41E0-B80B-75E2BBBDD465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7F6AB1A4-40DF-417B-A2B8-9BC30A5FB9E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="249">
   <si>
     <t>Miejsce 2024</t>
   </si>
@@ -780,6 +780,9 @@
   </si>
   <si>
     <t>WAT im, Jarosława Dąbrowskiego w Warszawie</t>
+  </si>
+  <si>
+    <t>UW</t>
   </si>
 </sst>
 </file>
@@ -1306,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F668440E-1E4D-481A-93B5-66E8052F3B1F}">
   <dimension ref="A1:BS104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1538,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>

--- a/p_2024.xlsx
+++ b/p_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Doc_UE\Quatro\Perspektywy2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9614C5-0033-41E0-B80B-75E2BBBDD465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC51BB25-B7B3-4FF4-B20D-3249E8BFF196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7F6AB1A4-40DF-417B-A2B8-9BC30A5FB9E3}"/>
+    <workbookView xWindow="1100" yWindow="730" windowWidth="35990" windowHeight="20150" xr2:uid="{7F6AB1A4-40DF-417B-A2B8-9BC30A5FB9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="p_2024" sheetId="4" r:id="rId1"/>
@@ -512,277 +512,277 @@
     <t>UE</t>
   </si>
   <si>
+    <t>kolor</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>v7</t>
+  </si>
+  <si>
+    <t>v8</t>
+  </si>
+  <si>
+    <t>v9</t>
+  </si>
+  <si>
+    <t>v10</t>
+  </si>
+  <si>
+    <t>v11</t>
+  </si>
+  <si>
+    <t>v12</t>
+  </si>
+  <si>
+    <t>v13</t>
+  </si>
+  <si>
+    <t>v14</t>
+  </si>
+  <si>
+    <t>v15</t>
+  </si>
+  <si>
+    <t>v16</t>
+  </si>
+  <si>
+    <t>v17</t>
+  </si>
+  <si>
+    <t>v18</t>
+  </si>
+  <si>
+    <t>v19</t>
+  </si>
+  <si>
+    <t>v20</t>
+  </si>
+  <si>
+    <t>v21</t>
+  </si>
+  <si>
+    <t>v22</t>
+  </si>
+  <si>
+    <t>v23</t>
+  </si>
+  <si>
+    <t>v24</t>
+  </si>
+  <si>
+    <t>v25</t>
+  </si>
+  <si>
+    <t>v26</t>
+  </si>
+  <si>
+    <t>v27</t>
+  </si>
+  <si>
+    <t>v28</t>
+  </si>
+  <si>
+    <t>v29</t>
+  </si>
+  <si>
+    <t>v30</t>
+  </si>
+  <si>
+    <t>v31</t>
+  </si>
+  <si>
+    <t>Nasycenie kadry osobami o najwyższych kwalifikacjach (1%)</t>
+  </si>
+  <si>
+    <t>Patenty, prawa ochronne w Polsce (3%)</t>
+  </si>
+  <si>
+    <t>Patenty, prawa ochronne za granicą (3%)</t>
+  </si>
+  <si>
+    <t>Efektywność pozyskiwania środków finansowych na badania (6%)</t>
+  </si>
+  <si>
+    <t>Efektywność pozyskiwania środków z programów UE (5%)</t>
+  </si>
+  <si>
+    <t>Nadane stopnie i tytuły naukowe (3%)</t>
+  </si>
+  <si>
+    <t>Dostępność dla studentów kadr wysokokwalifikowanych (5%)</t>
+  </si>
+  <si>
+    <t>ICI - collaboration impact (2%)</t>
+  </si>
+  <si>
+    <t>Nauczyciele akademiccy z zagranicy (1%)</t>
+  </si>
+  <si>
+    <t>Wymiana studencka (wyjazdy, 1,5%)</t>
+  </si>
+  <si>
+    <t>Wymiana studencka (przyjazdy, 1,5%)</t>
+  </si>
+  <si>
+    <t>Wielokulturowość środowiska akademickiego (1%)</t>
+  </si>
+  <si>
+    <t>AGH im, Stanisława Staszica w Krakowie</t>
+  </si>
+  <si>
+    <t>UM im, Piastów Śląskich we Wrocławiu</t>
+  </si>
+  <si>
+    <t>UM im, Karola Marcinkowskiego w Poznaniu</t>
+  </si>
+  <si>
+    <t>SGGW w Warszawie</t>
+  </si>
+  <si>
+    <t>Polsko-Japońska ATK w Warszawie</t>
+  </si>
+  <si>
+    <t>AEH w Warszawie</t>
+  </si>
+  <si>
+    <t>KUL Jana Pawła II w Lublinie</t>
+  </si>
+  <si>
+    <t>ZUT w Szczecinie</t>
+  </si>
+  <si>
+    <t>UKSW w Warszawie</t>
+  </si>
+  <si>
+    <t>AWF im, Jerzego Kukuczki w Katowicach</t>
+  </si>
+  <si>
+    <t>PB im, Jana i Jędrzeja Śniadeckich</t>
+  </si>
+  <si>
+    <t>AMW im, Bohaterów Westerplatte w Gdyni</t>
+  </si>
+  <si>
+    <t>AWFiS im, Jędrzeja Śniadeckiego w Gdańsku</t>
+  </si>
+  <si>
+    <t>AWF im, Bronisława Czecha w Krakowie</t>
+  </si>
+  <si>
+    <t>AWF Józefa Piłsudskiego w Warszawie</t>
+  </si>
+  <si>
+    <t>PR im, Ignacego Łukasiewicza</t>
+  </si>
+  <si>
+    <t>APS im, Marii Grzegorzewskiej w Warszawie</t>
+  </si>
+  <si>
+    <t>UKW w Bydgoszczy</t>
+  </si>
+  <si>
+    <t>UP Jana Pawła II w Krakowie</t>
+  </si>
+  <si>
+    <t>KAa im, A.F. Modrzewskiego w Krakowie</t>
+  </si>
+  <si>
+    <t>AG im, Wojciecha Korfantego w Katowicach</t>
+  </si>
+  <si>
+    <t>MWSLiT we Wrocławiu</t>
+  </si>
+  <si>
+    <t>Ucz_skr</t>
+  </si>
+  <si>
+    <t>UJ w Krakowie</t>
+  </si>
+  <si>
+    <t>UAM w Poznaniu</t>
+  </si>
+  <si>
+    <t>UM w Białymstoku</t>
+  </si>
+  <si>
+    <t>PŚl</t>
+  </si>
+  <si>
+    <t>WAM</t>
+  </si>
+  <si>
+    <t>PK im, Tadeusza Kościuszki</t>
+  </si>
+  <si>
+    <t>UMCS w Lublinie</t>
+  </si>
+  <si>
+    <t>AJP w Gorzowie Wielkopolskim</t>
+  </si>
+  <si>
+    <t>UR im, Kazimierza Pułaskiego</t>
+  </si>
+  <si>
+    <t>UKEN w Krakowie</t>
+  </si>
+  <si>
+    <t>AWF we Wrocławiu</t>
+  </si>
+  <si>
+    <t>AWF im, Eugeniusza Piaseckiego w Poznaniu</t>
+  </si>
+  <si>
+    <t>UR im, Hugona Kołłątaja w Krakowie</t>
+  </si>
+  <si>
+    <t>UWM w Olsztynie</t>
+  </si>
+  <si>
+    <t>WAT im, Jarosława Dąbrowskiego w Warszawie</t>
+  </si>
+  <si>
+    <t>UW</t>
+  </si>
+  <si>
     <t>Ranking_2024</t>
-  </si>
-  <si>
-    <t>kolor</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>grey</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>v3</t>
-  </si>
-  <si>
-    <t>v4</t>
-  </si>
-  <si>
-    <t>v5</t>
-  </si>
-  <si>
-    <t>v6</t>
-  </si>
-  <si>
-    <t>v7</t>
-  </si>
-  <si>
-    <t>v8</t>
-  </si>
-  <si>
-    <t>v9</t>
-  </si>
-  <si>
-    <t>v10</t>
-  </si>
-  <si>
-    <t>v11</t>
-  </si>
-  <si>
-    <t>v12</t>
-  </si>
-  <si>
-    <t>v13</t>
-  </si>
-  <si>
-    <t>v14</t>
-  </si>
-  <si>
-    <t>v15</t>
-  </si>
-  <si>
-    <t>v16</t>
-  </si>
-  <si>
-    <t>v17</t>
-  </si>
-  <si>
-    <t>v18</t>
-  </si>
-  <si>
-    <t>v19</t>
-  </si>
-  <si>
-    <t>v20</t>
-  </si>
-  <si>
-    <t>v21</t>
-  </si>
-  <si>
-    <t>v22</t>
-  </si>
-  <si>
-    <t>v23</t>
-  </si>
-  <si>
-    <t>v24</t>
-  </si>
-  <si>
-    <t>v25</t>
-  </si>
-  <si>
-    <t>v26</t>
-  </si>
-  <si>
-    <t>v27</t>
-  </si>
-  <si>
-    <t>v28</t>
-  </si>
-  <si>
-    <t>v29</t>
-  </si>
-  <si>
-    <t>v30</t>
-  </si>
-  <si>
-    <t>v31</t>
-  </si>
-  <si>
-    <t>Nasycenie kadry osobami o najwyższych kwalifikacjach (1%)</t>
-  </si>
-  <si>
-    <t>Patenty, prawa ochronne w Polsce (3%)</t>
-  </si>
-  <si>
-    <t>Patenty, prawa ochronne za granicą (3%)</t>
-  </si>
-  <si>
-    <t>Efektywność pozyskiwania środków finansowych na badania (6%)</t>
-  </si>
-  <si>
-    <t>Efektywność pozyskiwania środków z programów UE (5%)</t>
-  </si>
-  <si>
-    <t>Nadane stopnie i tytuły naukowe (3%)</t>
-  </si>
-  <si>
-    <t>Dostępność dla studentów kadr wysokokwalifikowanych (5%)</t>
-  </si>
-  <si>
-    <t>ICI - collaboration impact (2%)</t>
-  </si>
-  <si>
-    <t>Nauczyciele akademiccy z zagranicy (1%)</t>
-  </si>
-  <si>
-    <t>Wymiana studencka (wyjazdy, 1,5%)</t>
-  </si>
-  <si>
-    <t>Wymiana studencka (przyjazdy, 1,5%)</t>
-  </si>
-  <si>
-    <t>Wielokulturowość środowiska akademickiego (1%)</t>
-  </si>
-  <si>
-    <t>AGH im, Stanisława Staszica w Krakowie</t>
-  </si>
-  <si>
-    <t>UM im, Piastów Śląskich we Wrocławiu</t>
-  </si>
-  <si>
-    <t>UM im, Karola Marcinkowskiego w Poznaniu</t>
-  </si>
-  <si>
-    <t>SGGW w Warszawie</t>
-  </si>
-  <si>
-    <t>Polsko-Japońska ATK w Warszawie</t>
-  </si>
-  <si>
-    <t>AEH w Warszawie</t>
-  </si>
-  <si>
-    <t>KUL Jana Pawła II w Lublinie</t>
-  </si>
-  <si>
-    <t>ZUT w Szczecinie</t>
-  </si>
-  <si>
-    <t>UKSW w Warszawie</t>
-  </si>
-  <si>
-    <t>AWF im, Jerzego Kukuczki w Katowicach</t>
-  </si>
-  <si>
-    <t>PB im, Jana i Jędrzeja Śniadeckich</t>
-  </si>
-  <si>
-    <t>AMW im, Bohaterów Westerplatte w Gdyni</t>
-  </si>
-  <si>
-    <t>AWFiS im, Jędrzeja Śniadeckiego w Gdańsku</t>
-  </si>
-  <si>
-    <t>AWF im, Bronisława Czecha w Krakowie</t>
-  </si>
-  <si>
-    <t>AWF Józefa Piłsudskiego w Warszawie</t>
-  </si>
-  <si>
-    <t>PR im, Ignacego Łukasiewicza</t>
-  </si>
-  <si>
-    <t>APS im, Marii Grzegorzewskiej w Warszawie</t>
-  </si>
-  <si>
-    <t>UKW w Bydgoszczy</t>
-  </si>
-  <si>
-    <t>UP Jana Pawła II w Krakowie</t>
-  </si>
-  <si>
-    <t>KAa im, A.F. Modrzewskiego w Krakowie</t>
-  </si>
-  <si>
-    <t>AG im, Wojciecha Korfantego w Katowicach</t>
-  </si>
-  <si>
-    <t>MWSLiT we Wrocławiu</t>
-  </si>
-  <si>
-    <t>Ucz_skr</t>
-  </si>
-  <si>
-    <t>UJ w Krakowie</t>
-  </si>
-  <si>
-    <t>UAM w Poznaniu</t>
-  </si>
-  <si>
-    <t>UM w Białymstoku</t>
-  </si>
-  <si>
-    <t>PŚl</t>
-  </si>
-  <si>
-    <t>WAM</t>
-  </si>
-  <si>
-    <t>PK im, Tadeusza Kościuszki</t>
-  </si>
-  <si>
-    <t>UMCS w Lublinie</t>
-  </si>
-  <si>
-    <t>AJP w Gorzowie Wielkopolskim</t>
-  </si>
-  <si>
-    <t>UR im, Kazimierza Pułaskiego</t>
-  </si>
-  <si>
-    <t>UKEN w Krakowie</t>
-  </si>
-  <si>
-    <t>AWF we Wrocławiu</t>
-  </si>
-  <si>
-    <t>AWF im, Eugeniusza Piaseckiego w Poznaniu</t>
-  </si>
-  <si>
-    <t>UR im, Hugona Kołłątaja w Krakowie</t>
-  </si>
-  <si>
-    <t>UWM w Olsztynie</t>
-  </si>
-  <si>
-    <t>WAT im, Jarosława Dąbrowskiego w Warszawie</t>
-  </si>
-  <si>
-    <t>UW</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:BS104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>152</v>
@@ -1335,7 +1335,7 @@
         <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>153</v>
@@ -1347,7 +1347,7 @@
         <v>155</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>133</v>
@@ -1365,7 +1365,7 @@
         <v>148</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>149</v>
@@ -1374,25 +1374,25 @@
         <v>150</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>135</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>151</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>136</v>
@@ -1410,7 +1410,7 @@
         <v>140</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>141</v>
@@ -1422,118 +1422,118 @@
         <v>143</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>145</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>144</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="AO1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.35">
@@ -1541,14 +1541,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1754,14 +1754,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
@@ -2180,14 +2180,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="3">
         <v>6</v>
@@ -2606,14 +2606,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="3">
         <v>4</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="3">
         <v>8</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="3">
         <v>9</v>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="3">
         <v>12</v>
@@ -3458,14 +3458,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="4">
         <v>7</v>
@@ -3671,14 +3671,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12" s="4">
         <v>12</v>
@@ -3884,14 +3884,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="4">
         <v>20</v>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F14" s="4">
         <v>9</v>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F15" s="4">
         <v>11</v>
@@ -4532,7 +4532,7 @@
         <v>157</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="5">
         <v>12</v>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F17" s="4">
         <v>16</v>
@@ -4951,14 +4951,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F18" s="4">
         <v>16</v>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F19" s="4">
         <v>16</v>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F20" s="4">
         <v>12</v>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F21" s="4">
         <v>19</v>
@@ -5803,14 +5803,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F22" s="4">
         <v>16</v>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F23" s="4">
         <v>23</v>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F24" s="4">
         <v>20</v>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="4">
         <v>25</v>
@@ -6664,7 +6664,7 @@
         <v>157</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F26" s="4">
         <v>29</v>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" s="4">
         <v>30</v>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F28" s="4">
         <v>24</v>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F29" s="4">
         <v>30</v>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F30" s="4">
         <v>25</v>
@@ -7722,14 +7722,14 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F31" s="4">
         <v>25</v>
@@ -7935,14 +7935,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F32" s="4">
         <v>30</v>
@@ -8148,14 +8148,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F33" s="4">
         <v>35</v>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F34" s="4">
         <v>25</v>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F35" s="4">
         <v>30</v>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F36" s="4">
         <v>36</v>
@@ -9009,7 +9009,7 @@
         <v>157</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F37" s="8">
         <v>34</v>
@@ -9215,14 +9215,14 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F38" s="4">
         <v>45</v>
@@ -9428,14 +9428,14 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F39" s="4">
         <v>41</v>
@@ -9641,14 +9641,14 @@
         <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F40" s="4">
         <v>48</v>
@@ -9854,14 +9854,14 @@
         <v>42</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F41" s="4">
         <v>36</v>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F42" s="4">
         <v>35</v>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F43" s="4">
         <v>48</v>
@@ -10493,14 +10493,14 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F44" s="4">
         <v>41</v>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F45" s="4">
         <v>42</v>
@@ -10919,14 +10919,14 @@
         <v>49</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F46" s="4">
         <v>48</v>
@@ -11141,7 +11141,7 @@
         <v>157</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F47" s="11">
         <v>48</v>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F48" s="4">
         <v>48</v>
@@ -11569,7 +11569,7 @@
         <v>157</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>57</v>
@@ -11775,14 +11775,14 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F50" s="4">
         <v>45</v>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F51" s="4">
         <v>42</v>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>57</v>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F53" s="4">
         <v>48</v>
@@ -12627,14 +12627,14 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F54" s="4">
         <v>41</v>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F55" s="4">
         <v>42</v>
@@ -13060,7 +13060,7 @@
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>57</v>
@@ -13072,7 +13072,7 @@
         <v>48</v>
       </c>
       <c r="I56" s="17">
-        <v>50.099466808501113</v>
+        <v>50.1</v>
       </c>
       <c r="J56" s="3">
         <v>3.92</v>
@@ -13266,14 +13266,14 @@
         <v>65</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>57</v>
@@ -13285,7 +13285,7 @@
         <v>48</v>
       </c>
       <c r="I57" s="17">
-        <v>49.829667432706458</v>
+        <v>49.8</v>
       </c>
       <c r="J57" s="3">
         <v>1.9</v>
@@ -13486,7 +13486,7 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>57</v>
@@ -13498,7 +13498,7 @@
         <v>69</v>
       </c>
       <c r="I58" s="17">
-        <v>48.639616738214315</v>
+        <v>48.6</v>
       </c>
       <c r="J58" s="3">
         <v>0.74</v>
@@ -13699,7 +13699,7 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>57</v>
@@ -13711,7 +13711,7 @@
         <v>48</v>
       </c>
       <c r="I59" s="17">
-        <v>48.052851343245784</v>
+        <v>48.1</v>
       </c>
       <c r="J59" s="3">
         <v>0.97</v>
@@ -13912,7 +13912,7 @@
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>72</v>
@@ -13924,7 +13924,7 @@
         <v>41</v>
       </c>
       <c r="I60" s="17">
-        <v>48.912349555004717</v>
+        <v>48.9</v>
       </c>
       <c r="J60" s="3">
         <v>6.53</v>
@@ -14118,14 +14118,14 @@
         <v>65</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F61" s="4">
         <v>47</v>
@@ -14137,7 +14137,7 @@
         <v>41</v>
       </c>
       <c r="I61" s="17">
-        <v>49.702911903363187</v>
+        <v>49.7</v>
       </c>
       <c r="J61" s="3">
         <v>7.49</v>
@@ -14331,14 +14331,14 @@
         <v>73</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>57</v>
@@ -14350,7 +14350,7 @@
         <v>75</v>
       </c>
       <c r="I62" s="17">
-        <v>46.491334383711056</v>
+        <v>46.5</v>
       </c>
       <c r="J62" s="3">
         <v>1.82</v>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>72</v>
@@ -14563,7 +14563,7 @@
         <v>67</v>
       </c>
       <c r="I63" s="17">
-        <v>47.893596375502064</v>
+        <v>47.9</v>
       </c>
       <c r="J63" s="3">
         <v>0.42</v>
@@ -14757,14 +14757,14 @@
         <v>73</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>78</v>
@@ -14776,7 +14776,7 @@
         <v>48</v>
       </c>
       <c r="I64" s="17">
-        <v>45.710730295575054</v>
+        <v>45.7</v>
       </c>
       <c r="J64" s="3">
         <v>1.39</v>
@@ -14970,14 +14970,14 @@
         <v>73</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>120</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>72</v>
@@ -14989,7 +14989,7 @@
         <v>69</v>
       </c>
       <c r="I65" s="17">
-        <v>45.481767506274075</v>
+        <v>45.5</v>
       </c>
       <c r="J65" s="3">
         <v>1.43</v>
@@ -15183,14 +15183,14 @@
         <v>73</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>72</v>
@@ -15202,7 +15202,7 @@
         <v>74</v>
       </c>
       <c r="I66" s="17">
-        <v>47.869820064273227</v>
+        <v>47.9</v>
       </c>
       <c r="J66" s="3">
         <v>1.53</v>
@@ -15396,14 +15396,14 @@
         <v>73</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>78</v>
@@ -15415,7 +15415,7 @@
         <v>48</v>
       </c>
       <c r="I67" s="17">
-        <v>44.539669771739696</v>
+        <v>44.5</v>
       </c>
       <c r="J67" s="3">
         <v>1.88</v>
@@ -15609,14 +15609,14 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>72</v>
@@ -15628,7 +15628,7 @@
         <v>69</v>
       </c>
       <c r="I68" s="17">
-        <v>44.588457527248188</v>
+        <v>44.6</v>
       </c>
       <c r="J68" s="3">
         <v>2.23</v>
@@ -15822,14 +15822,14 @@
         <v>73</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>57</v>
@@ -15841,7 +15841,7 @@
         <v>41</v>
       </c>
       <c r="I69" s="17">
-        <v>45.401947032863021</v>
+        <v>45.4</v>
       </c>
       <c r="J69" s="3">
         <v>4.68</v>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>72</v>
@@ -16054,7 +16054,7 @@
         <v>41</v>
       </c>
       <c r="I70" s="17">
-        <v>47.243761999124587</v>
+        <v>47.2</v>
       </c>
       <c r="J70" s="3">
         <v>1.37</v>
@@ -16257,7 +16257,7 @@
         <v>157</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>72</v>
@@ -16269,7 +16269,7 @@
         <v>41</v>
       </c>
       <c r="I71" s="17">
-        <v>46.357476839325393</v>
+        <v>46.4</v>
       </c>
       <c r="J71" s="16">
         <v>4.09</v>
@@ -16470,7 +16470,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>72</v>
@@ -16482,7 +16482,7 @@
         <v>48</v>
       </c>
       <c r="I72" s="17">
-        <v>44.796345858869067</v>
+        <v>44.8</v>
       </c>
       <c r="J72" s="3">
         <v>4.3099999999999996</v>
@@ -16683,7 +16683,7 @@
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>72</v>
@@ -16695,7 +16695,7 @@
         <v>41</v>
       </c>
       <c r="I73" s="17">
-        <v>47.788764457811325</v>
+        <v>47.8</v>
       </c>
       <c r="J73" s="3">
         <v>4.22</v>
@@ -16889,14 +16889,14 @@
         <v>85</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>86</v>
@@ -16908,7 +16908,7 @@
         <v>48</v>
       </c>
       <c r="I74" s="17">
-        <v>40.836895276928402</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="J74" s="3">
         <v>2.2999999999999998</v>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>78</v>
@@ -17121,7 +17121,7 @@
         <v>74</v>
       </c>
       <c r="I75" s="17">
-        <v>42.551723126399651</v>
+        <v>42.6</v>
       </c>
       <c r="J75" s="3">
         <v>1.24</v>
@@ -17322,7 +17322,7 @@
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>78</v>
@@ -17334,7 +17334,7 @@
         <v>69</v>
       </c>
       <c r="I76" s="17">
-        <v>42.926277224069331</v>
+        <v>42.9</v>
       </c>
       <c r="J76" s="3">
         <v>0.92</v>
@@ -17535,7 +17535,7 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>78</v>
@@ -17547,7 +17547,7 @@
         <v>69</v>
       </c>
       <c r="I77" s="17">
-        <v>41.59580734085889</v>
+        <v>41.6</v>
       </c>
       <c r="J77" s="3">
         <v>1.74</v>
@@ -17741,14 +17741,14 @@
         <v>85</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>78</v>
@@ -17760,7 +17760,7 @@
         <v>69</v>
       </c>
       <c r="I78" s="17">
-        <v>43.921254092343176</v>
+        <v>43.9</v>
       </c>
       <c r="J78" s="3">
         <v>2.14</v>
@@ -17954,14 +17954,14 @@
         <v>85</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>78</v>
@@ -17973,7 +17973,7 @@
         <v>69</v>
       </c>
       <c r="I79" s="17">
-        <v>40.878658213210201</v>
+        <v>40.9</v>
       </c>
       <c r="J79" s="3">
         <v>3.69</v>
@@ -18174,7 +18174,7 @@
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>78</v>
@@ -18186,7 +18186,7 @@
         <v>69</v>
       </c>
       <c r="I80" s="17">
-        <v>44.450199821368876</v>
+        <v>44.5</v>
       </c>
       <c r="J80" s="3">
         <v>0.45</v>
@@ -18387,7 +18387,7 @@
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>78</v>
@@ -18399,7 +18399,7 @@
         <v>69</v>
       </c>
       <c r="I81" s="17">
-        <v>41.930991572532797</v>
+        <v>41.9</v>
       </c>
       <c r="J81" s="3">
         <v>2.0499999999999998</v>
@@ -18600,7 +18600,7 @@
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>86</v>
@@ -18612,7 +18612,7 @@
         <v>67</v>
       </c>
       <c r="I82" s="17">
-        <v>39.130018596471984</v>
+        <v>39.1</v>
       </c>
       <c r="J82" s="3">
         <v>0.87</v>
@@ -18813,7 +18813,7 @@
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>86</v>
@@ -18825,7 +18825,7 @@
         <v>75</v>
       </c>
       <c r="I83" s="17">
-        <v>37.717643952827174</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="J83" s="3">
         <v>0.8</v>
@@ -19026,7 +19026,7 @@
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>78</v>
@@ -19038,7 +19038,7 @@
         <v>74</v>
       </c>
       <c r="I84" s="17">
-        <v>38.118984998537137</v>
+        <v>38.1</v>
       </c>
       <c r="J84" s="3">
         <v>0.96</v>
@@ -19232,14 +19232,14 @@
         <v>94</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>86</v>
@@ -19251,7 +19251,7 @@
         <v>74</v>
       </c>
       <c r="I85" s="17">
-        <v>36.830664030686876</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="J85" s="3">
         <v>3.88</v>
@@ -19452,7 +19452,7 @@
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>86</v>
@@ -19464,7 +19464,7 @@
         <v>74</v>
       </c>
       <c r="I86" s="17">
-        <v>39.872101972584666</v>
+        <v>39.9</v>
       </c>
       <c r="J86" s="3">
         <v>0.72</v>
@@ -19665,7 +19665,7 @@
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>78</v>
@@ -19677,7 +19677,7 @@
         <v>48</v>
       </c>
       <c r="I87" s="17">
-        <v>40.10515614011657</v>
+        <v>40.1</v>
       </c>
       <c r="J87" s="3">
         <v>1.79</v>
@@ -19878,7 +19878,7 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>86</v>
@@ -19890,7 +19890,7 @@
         <v>74</v>
       </c>
       <c r="I88" s="17">
-        <v>38.306725222266031</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="J88" s="3">
         <v>3.12</v>
@@ -20084,14 +20084,14 @@
         <v>94</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>78</v>
@@ -20103,7 +20103,7 @@
         <v>48</v>
       </c>
       <c r="I89" s="17">
-        <v>39.829644273961776</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="J89" s="3">
         <v>1.98</v>
@@ -20297,14 +20297,14 @@
         <v>94</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>86</v>
@@ -20316,7 +20316,7 @@
         <v>74</v>
       </c>
       <c r="I90" s="17">
-        <v>39.300003782594963</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="J90" s="3">
         <v>0.4</v>
@@ -20517,7 +20517,7 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>86</v>
@@ -20529,7 +20529,7 @@
         <v>69</v>
       </c>
       <c r="I91" s="17">
-        <v>39.494305650656528</v>
+        <v>39.5</v>
       </c>
       <c r="J91" s="3">
         <v>1.25</v>
@@ -20723,14 +20723,14 @@
         <v>75</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>75</v>
@@ -20742,7 +20742,7 @@
         <v>67</v>
       </c>
       <c r="I92" s="17">
-        <v>32.843654542549174</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J92" s="3">
         <v>1.63</v>
@@ -20936,14 +20936,14 @@
         <v>75</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>75</v>
@@ -20955,7 +20955,7 @@
         <v>75</v>
       </c>
       <c r="I93" s="17">
-        <v>34.852598449753636</v>
+        <v>34.9</v>
       </c>
       <c r="J93" s="3">
         <v>0.94</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>75</v>
@@ -21168,7 +21168,7 @@
         <v>67</v>
       </c>
       <c r="I94" s="17">
-        <v>35.718658305845189</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="J94" s="3">
         <v>1.07</v>
@@ -21369,7 +21369,7 @@
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>75</v>
@@ -21381,7 +21381,7 @@
         <v>67</v>
       </c>
       <c r="I95" s="17">
-        <v>30.791403782749356</v>
+        <v>30.8</v>
       </c>
       <c r="J95" s="3">
         <v>1.17</v>
@@ -21582,7 +21582,7 @@
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>75</v>
@@ -21594,7 +21594,7 @@
         <v>67</v>
       </c>
       <c r="I96" s="17">
-        <v>27.843063994559238</v>
+        <v>27.8</v>
       </c>
       <c r="J96" s="3">
         <v>1.41</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>75</v>
@@ -21807,7 +21807,7 @@
         <v>67</v>
       </c>
       <c r="I97" s="17">
-        <v>28.011505264368648</v>
+        <v>28</v>
       </c>
       <c r="J97" s="3">
         <v>1.2</v>
@@ -22008,7 +22008,7 @@
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>67</v>
@@ -22020,7 +22020,7 @@
         <v>67</v>
       </c>
       <c r="I98" s="17">
-        <v>22.37057542532964</v>
+        <v>22.4</v>
       </c>
       <c r="J98" s="3">
         <v>0.03</v>
@@ -22221,7 +22221,7 @@
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>67</v>
@@ -22233,7 +22233,7 @@
         <v>67</v>
       </c>
       <c r="I99" s="17">
-        <v>31.259750796467827</v>
+        <v>31.3</v>
       </c>
       <c r="J99" s="3">
         <v>1.18</v>
@@ -22427,14 +22427,14 @@
         <v>75</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>75</v>
@@ -22446,7 +22446,7 @@
         <v>67</v>
       </c>
       <c r="I100" s="17">
-        <v>32.763370894244041</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J100" s="3">
         <v>0.22</v>
@@ -22647,7 +22647,7 @@
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>75</v>
@@ -22659,7 +22659,7 @@
         <v>75</v>
       </c>
       <c r="I101" s="17">
-        <v>32.550928009498179</v>
+        <v>32.6</v>
       </c>
       <c r="J101" s="3">
         <v>0.81</v>
@@ -22860,7 +22860,7 @@
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>75</v>
@@ -22872,7 +22872,7 @@
         <v>75</v>
       </c>
       <c r="I102" s="17">
-        <v>29.13269729127602</v>
+        <v>29.1</v>
       </c>
       <c r="J102" s="7">
         <v>1.08</v>
@@ -23073,7 +23073,7 @@
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>75</v>
@@ -23085,7 +23085,7 @@
         <v>67</v>
       </c>
       <c r="I103" s="17">
-        <v>26.372174922630499</v>
+        <v>26.4</v>
       </c>
       <c r="J103" s="7">
         <v>0.74</v>
@@ -23286,7 +23286,7 @@
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>75</v>
@@ -23298,7 +23298,7 @@
         <v>75</v>
       </c>
       <c r="I104" s="17">
-        <v>28.675775258277891</v>
+        <v>28.7</v>
       </c>
       <c r="J104" s="7">
         <v>1.56</v>
